--- a/Excel Task.xlsx
+++ b/Excel Task.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Analytics\Github data\da15_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987585A5-7FA6-42F3-8B64-E8B36EDC0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03CD3B1-7B2F-4840-8C6E-E9FA92AD722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Types of Data Validation TASK 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -55,13 +56,43 @@
   </si>
   <si>
     <t>TASK 1</t>
+  </si>
+  <si>
+    <t>Give example of all data validation types</t>
+  </si>
+  <si>
+    <t>TASK 2</t>
+  </si>
+  <si>
+    <t>Whole Number</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Text Length</t>
+  </si>
+  <si>
+    <t>DATA VALIDATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +109,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
@@ -160,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -172,6 +221,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -669,4 +726,307 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80B776-B275-49ED-8C83-743EA56FBBB1}">
+  <dimension ref="A2:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2">
+        <v>162</v>
+      </c>
+      <c r="E6" s="2">
+        <v>216</v>
+      </c>
+      <c r="F6" s="2">
+        <v>141</v>
+      </c>
+      <c r="G6" s="2">
+        <v>636</v>
+      </c>
+      <c r="H6" s="2">
+        <v>850</v>
+      </c>
+      <c r="I6" s="2">
+        <v>772</v>
+      </c>
+      <c r="J6" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="3">
+        <v>201</v>
+      </c>
+      <c r="E7" s="3">
+        <v>792</v>
+      </c>
+      <c r="F7" s="3">
+        <v>754</v>
+      </c>
+      <c r="G7" s="3">
+        <v>966</v>
+      </c>
+      <c r="H7" s="3">
+        <v>249</v>
+      </c>
+      <c r="I7" s="3">
+        <v>491</v>
+      </c>
+      <c r="J7" s="3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="14">
+        <v>507.66</v>
+      </c>
+      <c r="E13" s="14">
+        <v>624.32000000000005</v>
+      </c>
+      <c r="F13" s="14">
+        <v>632.58000000000004</v>
+      </c>
+      <c r="G13" s="14">
+        <v>784.32</v>
+      </c>
+      <c r="H13" s="14">
+        <v>255.41</v>
+      </c>
+      <c r="I13" s="14">
+        <v>480.56</v>
+      </c>
+      <c r="J13" s="14">
+        <v>758.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E27" s="15">
+        <v>43877</v>
+      </c>
+      <c r="F27" s="15">
+        <v>44003</v>
+      </c>
+      <c r="G27" s="15">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="16">
+        <v>45005</v>
+      </c>
+      <c r="F28" s="16">
+        <v>45067</v>
+      </c>
+      <c r="G28" s="16">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.87760416666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.5027314814814815</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Range" prompt="Value between 100 to 1000" sqref="D6:J7" xr:uid="{5AA7C1AB-F8AD-4925-9328-38A253489F5D}">
+      <formula1>100</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Greater Than" prompt="It should be greater than 799.63" sqref="D13:J13" xr:uid="{577665CF-8D07-48E4-ACCD-0B2BCD099673}">
+      <formula1>799.63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17" xr:uid="{DD9177BF-34CF-4F0A-AD91-2E149375A446}">
+      <formula1>$D$18:$D$20</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="less than 01/01/2023" sqref="E27:G28" xr:uid="{233B02E5-5C9F-40DE-9082-ABDEC0E1F897}">
+      <formula1>44927</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="it should be greater than 22:00:00" sqref="D32" xr:uid="{066A76C4-ABD5-4466-BC48-468D50453DA6}">
+      <formula1>0.458333333333333</formula1>
+      <formula2>0.916666666666667</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:E36" xr:uid="{DB68990B-E709-4EEE-B3C3-2FEDD774F681}">
+      <formula1>1</formula1>
+      <formula2>15</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>